--- a/sitemap_export.xlsx
+++ b/sitemap_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
@@ -681,326 +681,326 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/precision-ag</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>https://distek.com/our-expertise/embedded-software</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,223 +1012,223 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/application-areas/vehicle-controls</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/embedded-software</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>https://distek.com/about-us</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>https://distek.com/how-we-work</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/about-us</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,175 +1240,175 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://distek.com/how-we-work</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>https://distek.com/application-areas/electrification</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>https://distek.com/how-we-work</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>https://distek.com/application-areas/electrification</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>https://distek.com/our-expertise</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/application-areas/electrification</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,576 +1420,576 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/contact-us</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>https://distek.com/contact-us</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>https://distek.com/application-areas/autonomous-vehicles</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/tag/autonomous-software-development</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/tag/autonomy</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/blog/category/esop</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/tag/unit-test-generation</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/autonomous-vehicles</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/blog/tag/employee-owned-2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog/tag/user-interface</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog/the-future-of-autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/blog/2024-a-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/author/tj-steffes</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/tag/can</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/blog/tag/automotive-functional-safety</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/category/software-development</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/blog/author/ashleywdistekcorp-local</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/tag/giving-back</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-networking</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/blog/tag/ai-unit-test-generation-webinar</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog/page/28</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/blog/tag/iso-25119</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/tag/mqtt</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/blog/tag/construction</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/tag/iso-standard</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/category/press-release</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/blog/tag/ces</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mailto:careers@distek.com</t>
+          <t>https://distek.com/blog/tag/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/carthage-holdings-inc-acquires-red-foundry-llc</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://distek.com/find-a-career</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/blog/tag/midwest-regional-chapter-conference</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/blog/what-is-functional-safety</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/tag/webinar</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/author/max-bossert</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/season-of-giving-distek-gives-back</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/blog/author/cam-thomas</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/author/aaron-zuther</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/tag/world-ag-expo</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/precision-ag</t>
+          <t>https://distek.com/blog</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/blog/tag/season-of-giving</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/iso-standard</t>
+          <t>https://distek.com/blog/author/jaryd-peters</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-future-of-autonomous-vehicles</t>
+          <t>https://distek.com/blog/tag/primary-display-unit</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/functional-safety</t>
+          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/autonomous-vehicles</t>
+          <t>https://distek.com/blog/tag/software-abstraction</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/pdu</t>
+          <t>https://distek.com/blog/tag/united-way</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/can</t>
+          <t>https://distek.com/blog/tag/first-robotics</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/automotive</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/jaryd-peters</t>
+          <t>https://distek.com/blog/page/2</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/max-bossert</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/functional-safety-training</t>
+          <t>https://distek.com/blog/category/trade-shows</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/community</t>
+          <t>https://distek.com/blog/tag/ui</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/on-board-diagnostics</t>
+          <t>https://distek.com/blog/category/education</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ui</t>
+          <t>https://distek.com/blog/author/bobtdistekcorp-local</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owners</t>
+          <t>https://distek.com/blog/tag/autonomous-vehicle</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/fira-usa</t>
+          <t>https://distek.com/blog/tag/artificial-intelligence</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/brittanyf</t>
+          <t>https://distek.com/blog/tag/performance-unit-controller</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/distek-u</t>
+          <t>https://distek.com/blog/tag/community</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
+          <t>https://distek.com/blog/author/benjaminj</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/charlie-myers</t>
+          <t>https://distek.com/blog/tag/red-foundry</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/press-release</t>
+          <t>https://distek.com/blog/tag/functional-safety-training</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/commercial-vehicles</t>
+          <t>https://distek.com/blog/case-study-simplifying-complex-hardware-with-modular-software-architecture</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/habitat-for-humanity</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/tag/pdu</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/esop</t>
+          <t>https://distek.com/blog/tag/hara</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/reflecting-on-the-midwest-esop-conference</t>
+          <t>https://distek.com/blog/tag/embedded-software-development</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/esop</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owned-2</t>
+          <t>https://distek.com/blog/category/engineering-careers</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2024-a-year-in-review</t>
+          <t>https://distek.com/blog/tag/iso-26262</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ces</t>
+          <t>https://distek.com/blog/tag/ai-unit-test-generation</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/automotive-functional-safety</t>
+          <t>https://distek.com/blog/tag/distek-u</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/growth-mindset</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/iso-26262</t>
+          <t>https://distek.com/blog/category/ai</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first-robotics</t>
+          <t>https://distek.com/blog/tag/fusa-training</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/midwest-regional-chapter-conference</t>
+          <t>https://distek.com/blog/tag/autonomous-vehicle-software</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-abstraction</t>
+          <t>https://distek.com/blog/tag/core-values</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/benjaminj</t>
+          <t>https://distek.com/blog/author/shawnp</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-stock-ownership-plan</t>
+          <t>https://distek.com/blog/tag/fira-usa</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/esop-association</t>
+          <t>https://distek.com/blog/tag/employee-owners</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/page/2</t>
+          <t>https://distek.com/blog/tag/consumer-electronics-show</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/benefits-of-full-process-functional-safety-training</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/consumer-electronics-show</t>
+          <t>https://distek.com/blog/author/jake-crain</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/bobtdistekcorp-local</t>
+          <t>https://distek.com/blog/tag/autonomous-tractor</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/iso</t>
+          <t>https://distek.com/blog/tag/engineering-careers</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/blog/tag/functional-safety</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/blog/tag/habitat-for-humanity</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/iso-25119</t>
+          <t>https://distek.com/blog/tag/hazard-analysis-and-risk-assessment</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/carthage-holdings-inc-acquires-red-foundry-llc</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/construction</t>
+          <t>https://distek.com/blog/category/culture</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus-plugfest</t>
+          <t>https://distek.com/blog/category/functional-safety</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/education</t>
+          <t>https://distek.com/blog/tag/iso</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/giving-back</t>
+          <t>https://distek.com/blog/category/autonomy</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/case-study-combine-header-controls-isobus-solution</t>
+          <t>https://distek.com/blog/tag/commercial-vehicles</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/what-is-functional-safety</t>
+          <t>https://distek.com/blog/tag/growth-mindset</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/embedded-software-development</t>
+          <t>https://distek.com/blog/tag/automotive</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus</t>
+          <t>https://distek.com/blog/tag/on-board-diagnostics</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/jake-crain</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/core-values</t>
+          <t>https://distek.com/blog/tag/esop</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/world-ag-expo</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
@@ -2709,631 +2709,631 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/functional-safety</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>tel:319-859-3600</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/red-foundry</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/shawnp</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/isobus</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/midwest-regional-esop-conference</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/mqtt</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/season-of-giving</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hara</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/how-we-work</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-stacks</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/ashleywdistekcorp-local</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hazard-analysis-and-risk-assessment</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/page/28</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/primary-display-unit</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/engineering-careers</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/case-study-simplifying-complex-hardware-with-modular-software-architecture</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/application-areas</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/aaron-zuther</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/culture</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/fusa-training</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>mailto:itsupport@distek.com?Subject=Password%20Enrollment</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/united-way</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/agricultural-industry-electronics-foundation</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/intranet</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/trade-shows</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/engineering-careers</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/season-of-giving-distek-gives-back</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/software-development</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://distek.com/blog</t>
+          <t>https://distek.com/our-expertise/vehicle-simulation</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/cam-thomas</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/our-expertise/embedded-software</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/electrification</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/electrifying-agriculture-engineering-an-autonomous-tractor</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas/vehicle-controls</t>
+          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
           <t>https://distek.com/privacy-policy</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>mailto:webmaster@distek.com</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://distek.com/privacy-policy</t>
+          <t>https://distek.com/blog/ai-unit-test-generation-webinar</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>mailto:webmaster@distek.com</t>
         </is>
       </c>
     </row>
@@ -3357,295 +3357,295 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/privacy-policy</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://distek.com/application-areas</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise/vehicle-networking</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/our-expertise</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://distek.com/about-us</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>mailto:careers@distek.com</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/find-a-career</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/application-areas/autonomous-vehicles</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/blog/tag/giving-back</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/tis-the-season-giving-back</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/blog/page/28</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/page/27</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/iso-26262-automotive-functional-safety</t>
+          <t>https://distek.com/blog/page/28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/services/modeling-and-simulation</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/what-is-functional-safety</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>mailto:itsupport@distek.com?Subject=Password%20Enrollment</t>
+          <t>mailto:sales@distek.com</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/season-of-giving-distek-gives-back</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://distek.com/intranet</t>
+          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
+          <t>https://distek.com/blog/tag/first-robotics</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/robotics-challenges-part-1</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
+          <t>https://distek.com/blog/page/2</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>https://distek.com/blog/page/3</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-i-joined-distek-and-why-i-stay</t>
+          <t>https://distek.com/blog/author/bobtdistekcorp-local</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/careers/careers-benefits</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/blog/case-study-simplifying-complex-hardware-with-modular-software-architecture</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>tel:319-859-3600</t>
+          <t>mailto:Sales@distek.com</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://distek.com/contact-us</t>
+          <t>https://distek.com/blog/category/engineering-careers</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://distek.com/our-expertise/vehicle-simulation</t>
+          <t>https://distek.com/210-part-1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/brittanyf</t>
+          <t>https://distek.com/blog/tag/distek-u</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://distek.com/services/Automation-and-Test</t>
+          <t>https://distek.com/210-part-1</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/brittanyf</t>
+          <t>https://distek.com/blog/tag/distek-u</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://distek.com/about/training-descriptions</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
     </row>
@@ -3657,14 +3657,14 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://distek.com/210-part-1</t>
+          <t>https://distek.com/distek-u</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/distek-u</t>
+          <t>https://distek.com/blog/author/shawnp</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/distek-u</t>
+          <t>https://distek.com/blog/author/shawnp</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,360 +3688,360 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
+          <t>https://distek.com/blog/page/27</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/services/modeling-and-simulation</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/engaged-verses-involved-distek-u-105-esop-basics</t>
+          <t>https://distek.com/blog/page/27</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/blog/page/26</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/reflecting-on-the-midwest-esop-conference</t>
+          <t>https://distek.com/blog/page/27</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/services/Automation-and-Test</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first-robotics</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://distek.com/robotics-challenges-part-1</t>
+          <t>https://distek.com/blog/distek-attends-women-lead-change-conference</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-stock-ownership-plan</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://distek.com/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/blog/client-why</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus-plugfest</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
+          <t>https://distek.com/blog/case-study-closed-loop-approach-to-abs-testing</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/giving-back</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://distek.com/tis-the-season-giving-back</t>
+          <t>https://distek.com/blog/tag/wlc</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/case-study-combine-header-controls-isobus-solution</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>mailto:Sales@distek.com</t>
+          <t>https://distek.com/blog/exploring-multi-channel-task-control-in-isobus-a-game-changer-for-modern-farming</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/what-is-functional-safety</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>mailto:sales@distek.com</t>
+          <t>https://distek.com/blog/tag/build-community</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
+          <t>https://distek.com/blog/tag/why-statement</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/shawnp</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://distek.com/distek-u</t>
+          <t>https://distek.com/blog/tag/women-lead-change</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/shawnp</t>
+          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/isobus</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
+          <t>https://distek.com/blog/tag/distek-university</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/page/28</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://distek.com/services/modeling-and-simulation</t>
+          <t>https://distek.com/blog/a-year-at-distek-reflections-from-muhammad</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/engineering-careers</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://distek.com/210-part-1</t>
+          <t>https://distek.com/blog/volunteer</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/case-study-simplifying-complex-hardware-with-modular-software-architecture</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>mailto:Sales@distek.com</t>
+          <t>https://distek.com/blog/halloween-3</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
+          <t>https://distek.com/blog/2022-a-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://distek.com/turning-25-the-past</t>
+          <t>https://distek.com/blog/tag/leadership</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://distek.com/distek-present-2</t>
+          <t>https://distek.com/blog/author/matt-walters</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://distek.com/distek-present-1</t>
+          <t>https://distek.com/blog/tag/employee-owner</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/plugfest</t>
+          <t>https://distek.com/2019/10/28/distek-u-4</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://distek.com/2018-year-in-review</t>
+          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/season-of-giving-distek-gives-back</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/prez-sez-finding-wisdom-in-unexpected-places</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-development-2</t>
+          <t>https://distek.com/blog/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>mailto: hr@distek.com</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distek-u-2</t>
+          <t>https://distek.com/blog/author/william-griffin</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/our-people</t>
+          <t>https://distek.com/blog/how-software-abstraction-made-a-complicated-project-more-manageable</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/embedded-programming</t>
+          <t>https://distek.com/blog/celebrating-black-history-month-today-everyday</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/5-dysfunctions</t>
+          <t>https://distek.com/blog/fostering-a-culture-of-recognition</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/meaning</t>
+          <t>https://distek.com/blog/category/embedded</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://distek.com/?s=book+review</t>
+          <t>https://distek.com/blog/page/3</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/william-griffin</t>
+          <t>https://distek.com/blog/page/4</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distek-u-210-part-2</t>
+          <t>https://distek.com/blog/210-part-1</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/dysfunctions-of-a-team</t>
+          <t>https://distek.com/blog/journey-to-distekian-agility-mind-over-methods</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/cameron-herald</t>
+          <t>https://distek.com/blog/distek-u-2</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/the-journey-to-enterprise-agility</t>
+          <t>https://distek.com/blog/tag/aef</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owned</t>
+          <t>https://distek.com/blog/tag/embedded-software</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/why-statement</t>
+          <t>https://distek.com/blog/tag/start-with-why</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/jeremy-yoder</t>
+          <t>https://distek.com/blog/tag/hardware-in-the-loop</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/growth</t>
+          <t>https://distek.com/blog/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/vivid-vision</t>
+          <t>https://distek.com/blog/tag/eat-that-frog</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://distek.com/page/2/?s=book+review</t>
+          <t>https://distek.com/blog/tag/isobus</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/embedded</t>
+          <t>https://distek.com/blog/tag/why-statement</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/fall-2016-isobus-plugfest-review</t>
+          <t>https://distek.com/page/2/?s=book+review</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owner</t>
+          <t>https://distek.com/blog/tag/leadership</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/agile-principles</t>
+          <t>https://distek.com/blog/tag/meaning</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distek-u-4</t>
+          <t>https://distek.com/software-architecture</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/why-statement</t>
+          <t>https://distek.com/blog/author/jeremy-yoder</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/purpose</t>
+          <t>https://distek.com/blog/tag/agile</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/embedded-systems</t>
+          <t>https://distek.com/blog/tag/software-architecture</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/book-report</t>
+          <t>https://distek.com/blog/5-dysfunctions</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/embedded-software</t>
+          <t>https://distek.com/blog/tag/agile-principles</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/virtec</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hardware-in-the-loop</t>
+          <t>https://distek.com/blog/tag/embedded-systems</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/you-dont-need-a-title-to-be-a-leader</t>
+          <t>https://distek.com/blog/tag/software-development-2</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hil</t>
+          <t>https://distek.com/blog/fall-2016-isobus-plugfest-review</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/simon-sinek</t>
+          <t>https://distek.com/blog/author/william-griffin</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/aef</t>
+          <t>https://distek.com/blog/tag/you-dont-need-a-title-to-be-a-leader</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/shane-murphy</t>
+          <t>https://distek.com/blog/tag/embedded-programming</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/distek-university</t>
+          <t>https://distek.com/blog/why-statement</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/software-architecture-pitfalls</t>
+          <t>https://distek.com/blog/category/teamwork-and-leadership</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-architecture</t>
+          <t>https://distek.com/blog/author/matt-walters</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/210-part-1</t>
+          <t>https://distek.com/blog/author/david-harris</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/potential-leads</t>
+          <t>https://distek.com/blog/category/book-report</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/tag/our-people</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/journey-to-distekian-agility-mind-over-methods</t>
+          <t>https://distek.com/blog/tag/virtec</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/leadership</t>
+          <t>https://distek.com/blog/distek-u-4</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/eat-that-frog</t>
+          <t>https://distek.com/blog/tag/the-power-of-positive-thinking-in-business</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/the-power-of-positive-thinking-in-business</t>
+          <t>https://distek.com/blog/embedded-programming</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/embedded-programming</t>
+          <t>https://distek.com/blog/tag/the-journey-to-enterprise-agility</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/david-harris</t>
+          <t>https://distek.com/distek-u</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/teamwork-and-leadership</t>
+          <t>https://distek.com/blog/software-architecture-pitfalls</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/agile</t>
+          <t>https://distek.com/blog/tag/simon-sinek</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/team</t>
+          <t>https://distek.com/blog/category/embedded</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/start-with-why</t>
+          <t>https://distek.com/blog/tag/agricultural-industry-electronics-foundation</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://distek.com/software-architecture</t>
+          <t>https://distek.com/blog/author/shane-murphy</t>
         </is>
       </c>
     </row>
@@ -4581,331 +4581,331 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/matt-walters</t>
+          <t>https://distek.com/blog/tag/vivid-vision</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/embedded</t>
+          <t>https://distek.com/blog/category/isobus</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>mailto: hr@distek.com</t>
+          <t>https://distek.com/blog/tag/distek-university</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/prez-sez-finding-wisdom-in-unexpected-places</t>
+          <t>https://distek.com/blog/tag/team</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/how-software-abstraction-made-a-complicated-project-more-manageable</t>
+          <t>https://distek.com/blog/tag/growth</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/william-griffin</t>
+          <t>https://distek.com/blog/tag/employee-owned</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/celebrating-black-history-month-today-everyday</t>
+          <t>https://distek.com/blog/tag/cameron-herald</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/09/24/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/fostering-a-culture-of-recognition</t>
+          <t>https://distek.com/blog/distek-u-210-part-2</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2022-a-year-in-review</t>
+          <t>https://distek.com/blog/tag/dysfunctions-of-a-team</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/leadership</t>
+          <t>https://distek.com/blog/tag/potential-leads</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/volunteer</t>
+          <t>https://distek.com/blog/tag/hil</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/halloween-3</t>
+          <t>https://distek.com/blog/tag/employee-owner</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/?s=book+review</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owner</t>
+          <t>https://distek.com/blog/tag/purpose</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/blog/page/26</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/distek-university</t>
+          <t>https://distek.com/blog/page/25</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/blog/client-why</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/matt-walters</t>
+          <t>https://distek.com/2021/11/30/why-statement</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://distek.com/2019/10/28/distek-u-4</t>
+          <t>https://distek.com/blog/2022-a-year-in-review</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-year-at-distek-reflections-from-muhammad</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/2022-a-year-in-review</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/why-statement</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/2022-a-year-in-review</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/exploring-multi-channel-task-control-in-isobus-a-game-changer-for-modern-farming</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/tag/employee-owner</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/client-why</t>
+          <t>https://distek.com/distek-turns-employees-into-owners</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/category/embedded</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/build-community</t>
+          <t>https://distek.com/software-architecture</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/page/4</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/women-lead-change</t>
+          <t>https://distek.com/blog/page/5</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/tag/aef</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/wlc</t>
+          <t>https://distek.com/2018-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/tag/isobus</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distek-attends-women-lead-change-conference</t>
+          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/page/2/?s=book+review</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
+          <t>https://distek.com/blog/tag/task-controller</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/08/14/habitat-for-humanity-build</t>
+          <t>https://distek.com/page/2/?s=book+review</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/case-study-closed-loop-approach-to-abs-testing</t>
+          <t>https://distek.com/blog/category/isobus</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-taming-of-the-code-elevating-embedded-development-through-the-art-of-software-craftsmanship</t>
+          <t>https://distek.com/page/2/?s=book+review</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>mailto: hr@distek.com</t>
+          <t>https://distek.com/blog/tag/code</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/comment</t>
+          <t>https://distek.com/blog/tag/embedded-2</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/embedded-2</t>
+          <t>https://distek.com/blog/tag/tc</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/task-controller</t>
+          <t>https://distek.com/blog/tag/comment</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/embedded</t>
+          <t>https://distek.com/blog/tag/software</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/tc</t>
+          <t>https://distek.com/blog/author/zach-foltz</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/zach-foltz</t>
+          <t>https://distek.com/blog/tag/tc-sc</t>
         </is>
       </c>
     </row>
@@ -5001,379 +5001,379 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/tc-sc</t>
+          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://distek.com/page/2/?s=book+review</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/code</t>
+          <t>https://distek.com/the-distek-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://distek.com/page/2/?s=book+review</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
+          <t>https://distek.com/engineering-the-start-first-lego-league</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://distek.com/page/2/?s=book+review</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software</t>
+          <t>https://distek.com/distek-turns-employees-into-owners</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/embedded</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://distek.com/software-architecture</t>
+          <t>https://distek.com/integrated-projects-engineering-overview</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-owner</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://distek.com/careers/careers-benefits</t>
+          <t>https://distek.com/contact</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/book-report</t>
+          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://distek.com/book-report-fred-factor-mark-sanborn</t>
+          <t>https://distek.com/careers</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/software-architecture-pitfalls</t>
+          <t>https://distek.com/blog/category/book-report</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://distek.com/software-architecture</t>
+          <t>https://distek.com/book-report-fred-factor-mark-sanborn</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-architecture</t>
+          <t>https://distek.com/blog/tag/virtec</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://distek.com/software-architecture</t>
+          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/category/isobus</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://distek.com/contact</t>
+          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/tag/employee-owned</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://distek.com/careers</t>
+          <t>https://distek.com/distek-present-2</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/tag/employee-owned</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://distek.com/engineering-the-start-first-lego-league</t>
+          <t>https://distek.com/2018-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/tag/employee-owned</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://distek.com/integrated-projects-engineering-overview</t>
+          <t>https://distek.com/turning-25-the-past</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-vivid-vision-planning-for-the-future</t>
+          <t>https://distek.com/blog/tag/employee-owned</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://distek.com/the-distek-year-in-review</t>
+          <t>https://distek.com/distek-present-1</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/david-harris</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://distek.com/software-architecture</t>
+          <t>https://distek.com/distek-present-2</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2022-a-year-in-review</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/products/VIRTEC-ISOBUS-Software-Library</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2022-a-year-in-review</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/2018-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2022-a-year-in-review</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/turning-25-the-past</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/its-a-great-time-to-be-an-employee-owner</t>
+          <t>https://distek.com/blog/tag/plugfest</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/distek-present-1</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/client-why</t>
+          <t>https://distek.com/blog/page/25</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://distek.com/2021/11/30/why-statement</t>
+          <t>https://distek.com/blog/page/24</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
+          <t>https://distek.com/2021/11/30/why-statement</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://distek.com/isobus-task-controller-part-3</t>
+          <t>https://distek.com/blog/halloween-2021</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
+          <t>https://distek.com/2021/11/30/why-statement</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://distek.com/isobus-task-controller-part-5</t>
+          <t>https://distek.com/blog/our-purpose-is-our-people</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2021/11/30/why-statement</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/electrification</t>
+          <t>https://distek.com/blog/habitat-for-humanity-build</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2021/11/30/why-statement</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ivt-expo</t>
+          <t>https://distek.com/blog/team-approach</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/powertrain-controls</t>
+          <t>https://distek.com/blog/tag/employee-ownership-month</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/industrial-vehicle-technology-expo</t>
+          <t>https://distek.com/blog/were-hiring-join-our-team-today</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/were-hiring-join-our-team-today</t>
+          <t>https://distek.com/blog/tag/isu-college-of-engineering</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/blog/aem-aef-happenings</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ivt</t>
+          <t>https://distek.com/blog/category/working-with-engineers</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-2</t>
+          <t>https://distek.com/blog/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://distek.com/expo-lp</t>
+          <t>https://distek.com/blog/tag/simulink</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/2022/04/04/30-years</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/autonomy</t>
+          <t>https://distek.com/blog/distekian-testimonials</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hmi</t>
+          <t>https://distek.com/blog/tag/cabin-technology</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/part-2-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/blog/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
     </row>
@@ -5409,379 +5409,379 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/cabin-technology</t>
+          <t>https://distek.com/blog/tag/ivt-expo</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/blog/were-hiring-join-our-team-today</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2023-a-year-in-review</t>
+          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-2</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/our-people-meet-justin-durante</t>
+          <t>https://distek.com/expo-lp</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-distek-year-in-review</t>
+          <t>https://distek.com/blog/part-2-distek-at-ni-connect-2023</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distekian-testimonials</t>
+          <t>https://distek.com/blog/tag/hmi</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/blog/tag/electrification</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isu-college-of-engineering</t>
+          <t>https://distek.com/blog/tag/industrial-vehicle-technology-expo</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/were-hiring-join-our-team-today</t>
+          <t>https://distek.com/blog/tag/powertrain-controls</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2022/08/26/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-ownership-month</t>
+          <t>https://distek.com/blog/tag/ivt</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/aem-aef-happenings</t>
+          <t>https://distek.com/blog/our-people-meet-justin-durante</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/working-with-engineers</t>
+          <t>https://distek.com/blog/tag/employee-stock-ownership-plan</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/04/04/30-years</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/simulink</t>
+          <t>https://distek.com/blog/the-distek-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://distek.com/2021/11/30/why-statement</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/our-purpose-is-our-people</t>
+          <t>https://distek.com/blog/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://distek.com/2021/11/30/why-statement</t>
+          <t>https://distek.com/2016/01/20/distek-turns-employees-into-owners</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/team-approach</t>
+          <t>https://distek.com/blog/2023-a-year-in-review</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://distek.com/2021/11/30/why-statement</t>
+          <t>https://distek.com/blog/page/5</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/habitat-for-humanity-build</t>
+          <t>https://distek.com/blog/page/6</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://distek.com/2021/11/30/why-statement</t>
+          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/halloween-2021</t>
+          <t>https://distek.com/isobus-task-controller-part-5</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-2</t>
+          <t>https://distek.com/blog/isobus-task-controller-part-4</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/isobus-task-controller-part-3</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/part-2-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/blog/page/24</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/blog/page/23</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2023-a-year-in-review</t>
+          <t>https://distek.com/blog/aem-aef-happenings</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/tag/plugfest</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2023-a-year-in-review</t>
+          <t>https://distek.com/blog/category/working-with-engineers</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/covid19</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/our-people-meet-justin-durante</t>
+          <t>https://distek.com/blog/tag/simulink</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://distek.com/careers/careers-aboutourcommunities</t>
+          <t>https://distek.com/about/training-descriptions</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-distek-year-in-review</t>
+          <t>https://distek.com/blog/distekian-testimonials</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://distek.com/news/DesMoines</t>
+          <t>mailto:hr@distek.com</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-distek-year-in-review</t>
+          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-2</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://distek.com/getting-hil-embedded-systems-software-testing</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distekian-testimonials</t>
+          <t>https://distek.com/blog/part-2-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>mailto:hr@distek.com</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/aem-aef-happenings</t>
+          <t>https://distek.com/blog/our-people-meet-justin-durante</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://distek.com/tag/plugfest</t>
+          <t>https://distek.com/careers/careers-aboutourcommunities</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/working-with-engineers</t>
+          <t>https://distek.com/blog/the-distek-year-in-review</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://distek.com/covid19</t>
+          <t>https://distek.com/getting-hil-embedded-systems-software-testing</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/the-distek-year-in-review</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/carmen-mcintyre</t>
+          <t>https://distek.com/news/DesMoines</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/2023-a-year-in-review</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/reflections-from-first-robotics-22-23-season</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/2023-a-year-in-review</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/category/stems</t>
+          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/page/6</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/future-engineers</t>
+          <t>https://distek.com/blog/page/7</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/page/23</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first</t>
+          <t>https://distek.com/blog/page/22</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-1</t>
+          <t>https://distek.com/blog/bowling-for-bots-a-first-fundraiser</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/stem</t>
+          <t>https://distek.com/blog/tag/first-lego-league</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/bowling-for-bots-a-first-fundraiser</t>
+          <t>https://distek.com/blog/tag/first-robotics-championships</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first-robotics-championships</t>
+          <t>https://distek.com/blog/tag/first</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first-robotics-competition</t>
+          <t>https://distek.com/blog/tag/stem</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/first-lego-league</t>
+          <t>https://distek.com/blog/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/chairmans-award</t>
+          <t>https://distek.com/blog/reflections-from-first-robotics-22-23-season</t>
         </is>
       </c>
     </row>
@@ -5889,67 +5889,67 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/robotics</t>
+          <t>https://distek.com/blog/tag/first-robotics-competition</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/measurementlink</t>
+          <t>https://distek.com/blog/author/carmen-mcintyre</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/merging-iso-designer-part-2</t>
+          <t>https://distek.com/blog/tag/chairmans-award</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/reflections-from-first-robotics-22-23-season</t>
+          <t>https://distek.com/blog/category/stems</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/part-2-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/blog/tag/future-engineers</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
+          <t>https://distek.com/2022/07/27/the-journey-to-2022-first-championships-part-1</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/national-instruments</t>
+          <t>https://distek.com/blog/tag/robotics</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/python</t>
+          <t>https://distek.com/blog/tag/test-development</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/teststand</t>
+          <t>https://distek.com/blog/author/justin-nelson</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/labview</t>
+          <t>https://distek.com/blog/tag/ni-connect</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/justin-nelson</t>
+          <t>https://distek.com/blog/tag/python</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/test-development</t>
+          <t>https://distek.com/blog/reflections-from-first-robotics-22-23-season</t>
         </is>
       </c>
     </row>
@@ -6021,679 +6021,679 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ni-connect</t>
+          <t>https://distek.com/blog/tag/teststand</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/conexpo-con-agg-2020</t>
+          <t>https://distek.com/blog/tag/labview</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/navigating-tomorrow-insights-from-the-2024-construction-technology-summit</t>
+          <t>https://distek.com/blog/tag/national-instruments</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/conexpo</t>
+          <t>https://distek.com/blog/tag/measurementlink</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-software-considerations</t>
+          <t>https://distek.com/blog/merging-iso-designer-part-2</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/2023/06/22/part-1-distek-at-ni-connect-2023</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/alternative-fuels</t>
+          <t>https://distek.com/blog/part-2-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/news/DesMoines</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/distek-gears-up-for-the-ivt-expo</t>
+          <t>https://distek.com/blog/author/michellep</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
+          <t>https://distek.com/news/DesMoines</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/blog/git-part-1</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/news/DesMoines</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/employee-ownership</t>
+          <t>https://distek.com/blog/covid19</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/news/DesMoines</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/100-employe-owned</t>
+          <t>https://distek.com/blog/tag/engineering</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/bowling-for-bots-a-first-fundraiser</t>
+          <t>https://distek.com/blog/tag/conexpo</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/devops-days-des-moines</t>
+          <t>https://distek.com/blog/navigating-tomorrow-insights-from-the-2024-construction-technology-summit</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://distek.com/news/DesMoines</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/engineering</t>
+          <t>https://distek.com/blog/distek-gears-up-for-the-ivt-expo</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://distek.com/news/DesMoines</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/michellep</t>
+          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-software-considerations</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://distek.com/news/DesMoines</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/git-part-1</t>
+          <t>https://distek.com/blog/tag/alternative-fuels</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://distek.com/news/DesMoines</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/covid19</t>
+          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/merging-iso-designer-part-2</t>
+          <t>https://distek.com/2023/03/31/were-back-from-conexpo-con-agg-2023</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/tag/conexpo-con-agg-2020</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/part-2-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/blog/bowling-for-bots-a-first-fundraiser</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-software-considerations</t>
+          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/blog/tag/employee-ownership</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/gui</t>
+          <t>https://distek.com/blog/tag/100-employe-owned</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/2023/11/30/employee-ownership-a-time-to-celebrate</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/blog/devops-days-des-moines</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/page/7</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2023-distek-engineering-awards</t>
+          <t>https://distek.com/blog/page/8</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/page/22</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isodesigner</t>
+          <t>https://distek.com/blog/page/21</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
+          <t>https://distek.com/blog/merging-iso-designer-part-2</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
           <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>https://distek.com/blog/tag/vt-solutions</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/part-2-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus-development</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/selecting-an-enterprise-embedded-platform-software-considerations</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/jetter-ag</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/page/8</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/object-pools</t>
+          <t>https://distek.com/git-part-2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/page/8</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-fresh-perspective-my-first-plugfest</t>
+          <t>https://distek.com/blog/page/9</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
+          <t>https://distek.com/blog/page/21</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/iso-11783-2</t>
+          <t>https://distek.com/blog/page/20</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/society-of-automotive-engineers-international</t>
+          <t>https://distek.com/blog/tag/jetter-ag</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/sil</t>
+          <t>https://distek.com/blog/tag/vt-solutions</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/model-in-the-loop</t>
+          <t>https://distek.com/blog/tag/isodesigner</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/sae</t>
+          <t>https://distek.com/blog/tag/gui</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/software-in-the-loop</t>
+          <t>https://distek.com/blog/tag/iso-11783-2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/nishantha-randunu</t>
+          <t>https://distek.com/blog/author/brittanyf</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/essential-hardware-for-hil-systems</t>
+          <t>https://distek.com/blog/tag/isobus-development</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/comvec</t>
+          <t>https://distek.com/blog/tag/object-pools</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/off-highway-vehicle</t>
+          <t>https://distek.com/blog/2023-distek-engineering-awards</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/vehicle-systems</t>
+          <t>https://distek.com/blog/a-fresh-perspective-my-first-plugfest</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2023/08/02/merging-isodesigner-part-1</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/enterprise-embedded-platform</t>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/controller</t>
+          <t>https://distek.com/blog/author/nishantha-randunu</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/2024-distek-engineering-awards</t>
+          <t>https://distek.com/blog/tag/sil</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/hardware</t>
+          <t>https://distek.com/blog/tag/software-in-the-loop</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://distek.com/expertise/Case-Studies</t>
+          <t>https://distek.com/blog/tag/model-in-the-loop</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/ioxp-controller</t>
+          <t>https://distek.com/blog/tag/comvec</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/j1939</t>
+          <t>https://distek.com/blog/essential-hardware-for-hil-systems</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+          <t>https://distek.com/blog/tag/society-of-automotive-engineers-international</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2024/02/18/part-1-comvec-2023-a-gateway-to-new-opportunities</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/dawn-equipment-company</t>
+          <t>https://distek.com/blog/tag/sae</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/isobus-vt</t>
+          <t>https://distek.com/blog/tag/vehicle-systems</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/mifx-vt-interface</t>
+          <t>https://distek.com/blog/tag/enterprise-embedded-platform</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/stw-technic</t>
+          <t>https://distek.com/blog/tag/off-highway-vehicle</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://distek.com/wp-content/uploads/2016/07/snap009.bmp</t>
+          <t>https://distek.com/blog/tag/controller</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/author/ngamroth</t>
+          <t>https://distek.com/blog/2024-distek-engineering-awards</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/2023/03/13/selecting-an-enterprise-embedded-platform-hardware-considerations</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/reflections-from-gene-perspective-on-3-years-at-distek</t>
+          <t>https://distek.com/blog/tag/hardware</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/blog/page/9</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://distek.com/wp-content/uploads/2016/07/snap010.bmp</t>
+          <t>https://distek.com/git-part-1</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/blog/page/9</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/tag/model-view-controller</t>
+          <t>https://distek.com/blog/page/10</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+          <t>https://distek.com/blog/page/20</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/team-of-teams</t>
+          <t>https://distek.com/blog/page/19</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://distek.com/wp-content/uploads/2016/07/snap013.bmp</t>
+          <t>https://distek.com/wp-content/uploads/2016/07/snap010.bmp</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/a-fresh-perspective-my-first-plugfest</t>
+          <t>https://distek.com/blog/reflections-from-gene-perspective-on-3-years-at-distek</t>
         </is>
       </c>
     </row>
@@ -6729,43 +6729,343 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/connecting-in-a-remote-environment</t>
+          <t>https://distek.com/blog/tag/mifx-vt-interface</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://distek.com/spring-2016-plugfest</t>
+          <t>https://distek.com/blog/tag/isobus-vt</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://distek.com/isobus-spring-2015-plugfest-wrap-up</t>
+          <t>https://distek.com/blog/tag/model-view-controller</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/tag/j1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
           <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
         </is>
       </c>
-      <c r="B528" t="inlineStr">
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://distek.com/wp-content/uploads/2016/07/snap013.bmp</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://distek.com/wp-content/uploads/2016/07/snap009.bmp</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/tag/dawn-equipment-company</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://distek.com/expertise/Case-Studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/connecting-in-a-remote-environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/tag/ioxp-controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/team-of-teams</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/author/ngamroth</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://distek.com/2016/07/28/distek-case-study-virtec-isobus-solution</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/tag/stw-technic</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/10</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://distek.com/c-tool-chain</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/10</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/19</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/18</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://distek.com/spring-2016-plugfest</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
         <is>
           <t>https://distek.com/reflections-fall-plugfest</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/spring-isobus-plugfest-2016</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://distek.com/isobus-spring-2015-plugfest-wrap-up</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/11</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://distek.com/autosar-bsw</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/11</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/11</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://distek.com/autosar-communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/18</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/12</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/13</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/17</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/16</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/13</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/14</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/16</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/14</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://distek.com/blog/page/15</t>
         </is>
       </c>
     </row>
